--- a/personas_lesionadas.xlsx
+++ b/personas_lesionadas.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarromero/Desktop/Portafolio Shiny R/Visualización de accidentes cdmx/AccidentesViales/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82105C00-3F70-6B4D-9C60-B694A811366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14580" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -103,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +173,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -211,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -245,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,14 +470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -492,16 +510,16 @@
         <v>1252</v>
       </c>
       <c r="D2">
+        <v>861</v>
+      </c>
+      <c r="E2">
         <v>937</v>
       </c>
-      <c r="E2">
-        <v>861</v>
-      </c>
       <c r="F2">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -512,16 +530,16 @@
         <v>1187</v>
       </c>
       <c r="D3">
+        <v>699</v>
+      </c>
+      <c r="E3">
         <v>855</v>
       </c>
-      <c r="E3">
-        <v>699</v>
-      </c>
       <c r="F3">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -529,7 +547,7 @@
         <v>2050</v>
       </c>
       <c r="C4">
-        <v>1517</v>
+        <v>1324</v>
       </c>
       <c r="D4">
         <v>863</v>
@@ -541,7 +559,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -549,7 +567,7 @@
         <v>2214</v>
       </c>
       <c r="C5">
-        <v>1169</v>
+        <v>1517</v>
       </c>
       <c r="D5">
         <v>726</v>
@@ -558,10 +576,10 @@
         <v>693</v>
       </c>
       <c r="F5">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -578,10 +596,10 @@
         <v>736</v>
       </c>
       <c r="F6">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -589,19 +607,19 @@
         <v>1469</v>
       </c>
       <c r="C7">
+        <v>404</v>
+      </c>
+      <c r="D7">
         <v>531</v>
       </c>
-      <c r="D7">
-        <v>404</v>
-      </c>
       <c r="E7">
+        <v>531</v>
+      </c>
+      <c r="F7">
         <v>286</v>
       </c>
-      <c r="F7">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -609,19 +627,19 @@
         <v>2052</v>
       </c>
       <c r="C8">
+        <v>584</v>
+      </c>
+      <c r="D8">
+        <v>728</v>
+      </c>
+      <c r="E8">
         <v>855</v>
       </c>
-      <c r="D8">
-        <v>709</v>
-      </c>
-      <c r="E8">
-        <v>584</v>
-      </c>
       <c r="F8">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -629,19 +647,19 @@
         <v>2108</v>
       </c>
       <c r="C9">
+        <v>686</v>
+      </c>
+      <c r="D9">
+        <v>709</v>
+      </c>
+      <c r="E9">
         <v>875</v>
       </c>
-      <c r="D9">
-        <v>688</v>
-      </c>
-      <c r="E9">
-        <v>686</v>
-      </c>
       <c r="F9">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -649,19 +667,19 @@
         <v>2303</v>
       </c>
       <c r="C10">
-        <v>990</v>
+        <v>641</v>
       </c>
       <c r="D10">
-        <v>832</v>
+        <v>731</v>
       </c>
       <c r="E10">
-        <v>567</v>
+        <v>857</v>
       </c>
       <c r="F10">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -669,19 +687,19 @@
         <v>2786</v>
       </c>
       <c r="C11">
-        <v>1202</v>
+        <v>832</v>
       </c>
       <c r="D11">
         <v>990</v>
       </c>
       <c r="E11">
-        <v>832</v>
+        <v>1202</v>
       </c>
       <c r="F11">
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -689,19 +707,19 @@
         <v>2641</v>
       </c>
       <c r="C12">
+        <v>868</v>
+      </c>
+      <c r="D12">
         <v>1196</v>
       </c>
-      <c r="D12">
-        <v>856</v>
-      </c>
       <c r="E12">
-        <v>682</v>
+        <v>1101</v>
       </c>
       <c r="F12">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -709,19 +727,19 @@
         <v>3691</v>
       </c>
       <c r="C13">
-        <v>1651</v>
+        <v>1197</v>
       </c>
       <c r="D13">
-        <v>1196</v>
+        <v>1561</v>
       </c>
       <c r="E13">
-        <v>1043</v>
+        <v>1373</v>
       </c>
       <c r="F13">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -729,19 +747,19 @@
         <v>3708</v>
       </c>
       <c r="C14">
-        <v>1891</v>
+        <v>1089</v>
       </c>
       <c r="D14">
-        <v>1512</v>
+        <v>1651</v>
       </c>
       <c r="E14">
-        <v>1225</v>
+        <v>1364</v>
       </c>
       <c r="F14">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -749,19 +767,19 @@
         <v>4012</v>
       </c>
       <c r="C15">
-        <v>1918</v>
+        <v>1225</v>
       </c>
       <c r="D15">
-        <v>1395</v>
+        <v>1891</v>
       </c>
       <c r="E15">
-        <v>1272</v>
+        <v>1512</v>
       </c>
       <c r="F15">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -769,19 +787,19 @@
         <v>3924</v>
       </c>
       <c r="C16">
-        <v>2013</v>
+        <v>1232</v>
       </c>
       <c r="D16">
-        <v>1415</v>
+        <v>1918</v>
       </c>
       <c r="E16">
-        <v>1276</v>
+        <v>1395</v>
       </c>
       <c r="F16">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -789,19 +807,19 @@
         <v>4048</v>
       </c>
       <c r="C17">
-        <v>1573</v>
+        <v>1277</v>
       </c>
       <c r="D17">
-        <v>1579</v>
+        <v>2013</v>
       </c>
       <c r="E17">
-        <v>1272</v>
+        <v>1415</v>
       </c>
       <c r="F17">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -809,19 +827,19 @@
         <v>3829</v>
       </c>
       <c r="C18">
-        <v>1512</v>
+        <v>1125</v>
       </c>
       <c r="D18">
-        <v>1188</v>
+        <v>1573</v>
       </c>
       <c r="E18">
-        <v>1043</v>
+        <v>1268</v>
       </c>
       <c r="F18">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -829,19 +847,19 @@
         <v>3610</v>
       </c>
       <c r="C19">
+        <v>1043</v>
+      </c>
+      <c r="D19">
         <v>1579</v>
       </c>
-      <c r="D19">
-        <v>1268</v>
-      </c>
       <c r="E19">
-        <v>1205</v>
+        <v>1188</v>
       </c>
       <c r="F19">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -849,19 +867,19 @@
         <v>3677</v>
       </c>
       <c r="C20">
+        <v>1159</v>
+      </c>
+      <c r="D20">
+        <v>1845</v>
+      </c>
+      <c r="E20">
         <v>1368</v>
       </c>
-      <c r="D20">
-        <v>1159</v>
-      </c>
-      <c r="E20">
-        <v>1129</v>
-      </c>
       <c r="F20">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -869,19 +887,19 @@
         <v>3715</v>
       </c>
       <c r="C21">
+        <v>1288</v>
+      </c>
+      <c r="D21">
+        <v>1826</v>
+      </c>
+      <c r="E21">
         <v>1407</v>
       </c>
-      <c r="D21">
-        <v>1288</v>
-      </c>
-      <c r="E21">
-        <v>1258</v>
-      </c>
       <c r="F21">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -889,19 +907,19 @@
         <v>4129</v>
       </c>
       <c r="C22">
+        <v>1225</v>
+      </c>
+      <c r="D22">
+        <v>1858</v>
+      </c>
+      <c r="E22">
         <v>1329</v>
       </c>
-      <c r="D22">
-        <v>1225</v>
-      </c>
-      <c r="E22">
-        <v>1225</v>
-      </c>
       <c r="F22">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -909,13 +927,13 @@
         <v>3864</v>
       </c>
       <c r="C23">
+        <v>1208</v>
+      </c>
+      <c r="D23">
+        <v>2096</v>
+      </c>
+      <c r="E23">
         <v>1330</v>
-      </c>
-      <c r="D23">
-        <v>1208</v>
-      </c>
-      <c r="E23">
-        <v>1208</v>
       </c>
       <c r="F23">
         <v>630</v>
